--- a/medicine/Pharmacie/Copanlisib/Copanlisib.xlsx
+++ b/medicine/Pharmacie/Copanlisib/Copanlisib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le copanlisib, est un médicament destiné à traiter certains lymphomes et vendu sous la marque Aliqopa[2].
+Le copanlisib, est un médicament destiné à traiter certains lymphomes et vendu sous la marque Aliqopa.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur de la PI3-kinase[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur de la PI3-kinase.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter le lymphome folliculaire[2] en deuxième ligne[2] (en cas d'échec de la première ligne). Il est administré par injection intraveineuse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter le lymphome folliculaire en deuxième ligne (en cas d'échec de la première ligne). Il est administré par injection intraveineuse.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent l'hyperglycémie, la diarrhée, la faiblesse, l'hypertension artérielle, le faible nombre de globules blancs, les nausées, la pneumonie et le faible nombre de plaquettes; d'autres effets secondaires peuvent inclure une infection et une pneumopathie[2]. L'utilisation pendant la grossesse peut nuire au fœtus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent l'hyperglycémie, la diarrhée, la faiblesse, l'hypertension artérielle, le faible nombre de globules blancs, les nausées, la pneumonie et le faible nombre de plaquettes; d'autres effets secondaires peuvent inclure une infection et une pneumopathie. L'utilisation pendant la grossesse peut nuire au fœtus.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le copanlisib a été approuvé pour un usage médical aux États-Unis en 2017[2]. Depuis 2022, il n'est approuvé ni au Royaume-Uni ni en Europe[4]. Aux États-Unis, cela coûte environ 5 000 dollars américain  par dose à partir de 2022[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le copanlisib a été approuvé pour un usage médical aux États-Unis en 2017. Depuis 2022, il n'est approuvé ni au Royaume-Uni ni en Europe. Aux États-Unis, cela coûte environ 5 000 dollars américain  par dose à partir de 2022.
 </t>
         </is>
       </c>
